--- a/FunctionList-백기원.xlsx
+++ b/FunctionList-백기원.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD6563-3356-4D71-B021-24454384985B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE147D9E-06D9-4AE2-B66D-E9A9C5D68A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="8325" windowWidth="27810" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="27810" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>현재 제휴 가맹점에서 제공하는 할인 등의 혜택이나 프로모션의 정보를 배너 형태로 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 이전에 주문한 내역과 현재 주문한 내역을 확인 할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,14 +225,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +575,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,13 +586,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
@@ -619,13 +627,13 @@
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4"/>
@@ -633,10 +641,10 @@
     <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
@@ -644,10 +652,10 @@
     <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4"/>
@@ -655,10 +663,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="4"/>
@@ -666,10 +674,10 @@
     <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4"/>
@@ -677,10 +685,10 @@
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="4"/>
@@ -688,10 +696,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4"/>
@@ -699,10 +707,10 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="4"/>
@@ -710,15 +718,19 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
     </row>
   </sheetData>
